--- a/Daisy-xls/ResearchPages/research-liver-and-bile-duct-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-liver-and-bile-duct-cancer.xlsx
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <color theme="10"/>
       <name val="Arail"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -121,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,12 +150,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -204,6 +225,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -550,7 +574,9 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="19">
+        <v>487870</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
@@ -567,7 +593,9 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="19">
+        <v>480964</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,7 +611,9 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="19">
+        <v>312165</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
@@ -601,7 +631,9 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="19">
+        <v>254563</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
